--- a/data/testcase_info.xlsx
+++ b/data/testcase_info.xlsx
@@ -256,11 +256,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">{   "tag" : {     "name" : "010706"   } } </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{   "tag" : {     "name" : "010707"   } } </t>
+    <t xml:space="preserve">{   "tag" : {     "name" : "010708"   } } </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{   "tag" : {     "name" : "010709"   } } </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
